--- a/Tables/Buff.xlsx
+++ b/Tables/Buff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>名称</t>
   </si>
@@ -89,6 +89,21 @@
   </si>
   <si>
     <t>当前目标减速30%</t>
+  </si>
+  <si>
+    <t>标记</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>受到的伤害提高20%</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1075,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1177,14 +1192,30 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1"/>

--- a/Tables/Buff.xlsx
+++ b/Tables/Buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17340"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
   <si>
     <t>名称</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>持续时间</t>
+  </si>
+  <si>
+    <t>触发间隔</t>
   </si>
   <si>
     <t>叠加类型
@@ -37,12 +40,21 @@
 3.唯一</t>
   </si>
   <si>
+    <t>最大层数</t>
+  </si>
+  <si>
+    <t>层数</t>
+  </si>
+  <si>
     <t>参数1</t>
   </si>
   <si>
     <t>描述</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -58,15 +70,27 @@
     <t>Time</t>
   </si>
   <si>
+    <t>Sep</t>
+  </si>
+  <si>
     <t>Extend</t>
   </si>
   <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
     <t>Value1</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
+    <t>Notes</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -82,15 +106,24 @@
     <t>3000</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>300</t>
   </si>
   <si>
     <t>当前目标减速30%</t>
   </si>
   <si>
+    <t>无法叠加</t>
+  </si>
+  <si>
     <t>标记</t>
   </si>
   <si>
@@ -104,6 +137,45 @@
   </si>
   <si>
     <t>受到的伤害提高20%</t>
+  </si>
+  <si>
+    <t>中毒</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>可以叠加，有层数上限，每层的持续时间单独计算</t>
+  </si>
+  <si>
+    <t>1021</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>灼烧</t>
+  </si>
+  <si>
+    <t>1030</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>每次触发，消减1层，伤害与层数有关</t>
   </si>
 </sst>
 </file>
@@ -1072,22 +1144,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="2" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="5" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="11" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48" spans="1:8">
+    <row r="1" ht="48" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1112,122 +1185,186 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:12">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1236,16 +1373,144 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+    <row r="8" ht="24" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
